--- a/Format.xlsx
+++ b/Format.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
   <si>
     <t>Nama Penyakit</t>
   </si>
@@ -79,19 +79,33 @@
   </si>
   <si>
     <t>ODGJ</t>
+  </si>
+  <si>
+    <t>JML</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -130,12 +144,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AY8"/>
+  <dimension ref="A3:BD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,340 +509,376 @@
     <col min="49" max="49" width="3.140625" customWidth="1"/>
     <col min="50" max="50" width="2.7109375" customWidth="1"/>
     <col min="51" max="51" width="3" customWidth="1"/>
+    <col min="52" max="52" width="2.7109375" customWidth="1"/>
+    <col min="53" max="53" width="3.28515625" customWidth="1"/>
+    <col min="54" max="54" width="3.140625" customWidth="1"/>
+    <col min="55" max="55" width="2.5703125" customWidth="1"/>
+    <col min="56" max="56" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1" t="s">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1" t="s">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1" t="s">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1" t="s">
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1" t="s">
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1" t="s">
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1" t="s">
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1" t="s">
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1" t="s">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1" t="s">
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1" t="s">
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1" t="s">
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1" t="s">
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1" t="s">
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1" t="s">
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AY4" s="1"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>121</v>
       </c>
@@ -969,8 +1029,23 @@
       <c r="AY6">
         <v>0</v>
       </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>123</v>
       </c>
@@ -1121,8 +1196,23 @@
       <c r="AY7">
         <v>0</v>
       </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>124</v>
       </c>
@@ -1273,15 +1363,41 @@
       <c r="AY8">
         <v>0</v>
       </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BD8">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
+  <mergeCells count="42">
+    <mergeCell ref="AZ3:BD3"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BB4:BC4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
     <mergeCell ref="AV3:AY3"/>
     <mergeCell ref="AV4:AW4"/>
     <mergeCell ref="AX4:AY4"/>
@@ -1291,6 +1407,12 @@
     <mergeCell ref="AN3:AQ3"/>
     <mergeCell ref="AN4:AO4"/>
     <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AT4:AU4"/>
     <mergeCell ref="AB3:AE3"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AD4:AE4"/>
@@ -1301,22 +1423,9 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
